--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N2">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O2">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P2">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q2">
-        <v>55.27072278650389</v>
+        <v>4.693775957023999</v>
       </c>
       <c r="R2">
-        <v>497.436505078535</v>
+        <v>42.243983613216</v>
       </c>
       <c r="S2">
-        <v>0.01260286783515738</v>
+        <v>0.001275211007249949</v>
       </c>
       <c r="T2">
-        <v>0.01260286783515738</v>
+        <v>0.001275211007249949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.177841</v>
       </c>
       <c r="O3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q3">
-        <v>190.8752150075552</v>
+        <v>44.050671682276</v>
       </c>
       <c r="R3">
-        <v>1717.876935067997</v>
+        <v>396.456045140484</v>
       </c>
       <c r="S3">
-        <v>0.04352349646375286</v>
+        <v>0.01196774237209395</v>
       </c>
       <c r="T3">
-        <v>0.04352349646375286</v>
+        <v>0.01196774237209396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N4">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q4">
-        <v>65.06215946213987</v>
+        <v>15.015212034172</v>
       </c>
       <c r="R4">
-        <v>585.5594351592589</v>
+        <v>135.136908307548</v>
       </c>
       <c r="S4">
-        <v>0.01483551789142704</v>
+        <v>0.004079351856049854</v>
       </c>
       <c r="T4">
-        <v>0.01483551789142705</v>
+        <v>0.004079351856049854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N5">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O5">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P5">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q5">
-        <v>706.3789795211817</v>
+        <v>259.9333377020453</v>
       </c>
       <c r="R5">
-        <v>6357.410815690635</v>
+        <v>2339.400039318408</v>
       </c>
       <c r="S5">
-        <v>0.1610690157757915</v>
+        <v>0.07061901897827874</v>
       </c>
       <c r="T5">
-        <v>0.1610690157757915</v>
+        <v>0.07061901897827877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.177841</v>
       </c>
       <c r="O6">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P6">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q6">
         <v>2439.45135499198</v>
@@ -818,10 +818,10 @@
         <v>21955.06219492782</v>
       </c>
       <c r="S6">
-        <v>0.5562453586144643</v>
+        <v>0.6627532391871829</v>
       </c>
       <c r="T6">
-        <v>0.5562453586144644</v>
+        <v>0.6627532391871831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N7">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O7">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P7">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q7">
-        <v>831.5169313749776</v>
+        <v>831.5169313749777</v>
       </c>
       <c r="R7">
         <v>7483.652382374798</v>
       </c>
       <c r="S7">
-        <v>0.1896030567447794</v>
+        <v>0.2259075749061472</v>
       </c>
       <c r="T7">
-        <v>0.1896030567447795</v>
+        <v>0.2259075749061472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N8">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O8">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P8">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q8">
-        <v>17.22933923540889</v>
+        <v>6.340052271793778</v>
       </c>
       <c r="R8">
-        <v>155.06405311868</v>
+        <v>57.060470446144</v>
       </c>
       <c r="S8">
-        <v>0.003928645661278943</v>
+        <v>0.001722473445165787</v>
       </c>
       <c r="T8">
-        <v>0.003928645661278945</v>
+        <v>0.001722473445165788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.177841</v>
       </c>
       <c r="O9">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P9">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q9">
-        <v>59.50082910440623</v>
+        <v>59.50082910440622</v>
       </c>
       <c r="R9">
-        <v>535.5074619396561</v>
+        <v>535.507461939656</v>
       </c>
       <c r="S9">
-        <v>0.01356741955739766</v>
+        <v>0.01616526074298287</v>
       </c>
       <c r="T9">
-        <v>0.01356741955739766</v>
+        <v>0.01616526074298288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N10">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O10">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P10">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q10">
         <v>20.28158779633689</v>
@@ -1066,10 +1066,10 @@
         <v>182.534290167032</v>
       </c>
       <c r="S10">
-        <v>0.004624621455950799</v>
+        <v>0.005510127504848607</v>
       </c>
       <c r="T10">
-        <v>0.0046246214559508</v>
+        <v>0.005510127504848609</v>
       </c>
     </row>
   </sheetData>
